--- a/resources/data_sheet.xlsx
+++ b/resources/data_sheet.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\BATCH 179-180 QA ENG\IdeaProjects\mytestNGproject\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7635"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="user_data" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="employee_credentials" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="admin_credentials" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="inventory_list" sheetId="4" r:id="rId7"/>
+    <sheet name="user_data" sheetId="1" r:id="rId1"/>
+    <sheet name="employee_credentials" sheetId="2" r:id="rId2"/>
+    <sheet name="admin_credentials" sheetId="3" r:id="rId3"/>
+    <sheet name="inventory_list" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -145,24 +153,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -173,35 +183,16 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="5">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF9A9A9A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9A9A9A"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9A9A9A"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9A9A9A"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF9A9A9A"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9A9A9A"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9A9A9A"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -210,76 +201,90 @@
       <right style="thin">
         <color rgb="FF9A9A9A"/>
       </right>
+      <top style="thin">
+        <color rgb="FF9A9A9A"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF9A9A9A"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF9A9A9A"/>
       </right>
+      <top style="thin">
+        <color rgb="FF9A9A9A"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF9A9A9A"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9A9A9A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9A9A9A"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9A9A9A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF9A9A9A"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9A9A9A"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -469,236 +474,247 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="12.5703125" style="9"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2">
-        <v>52345.0</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="10">
+        <v>52345</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2">
-        <v>1000000.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="G2" s="10">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2">
-        <v>5245.0</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="10">
+        <v>5245</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2">
-        <v>590000.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="G3" s="10">
+        <v>590000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2">
-        <v>9811.0</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="10">
+        <v>9811</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="2">
-        <v>871000.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="G4" s="10">
+        <v>871000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="2">
-        <v>5188.0</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="10">
+        <v>5188</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="2">
-        <v>800000.0</v>
+      <c r="G5" s="10">
+        <v>800000</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="8">
-        <v>12345.0</v>
+      <c r="B2" s="7">
+        <v>12345</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -706,31 +722,31 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="2">
-        <v>2023.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="2">
-        <v>2019.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="2">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>